--- a/src/test/resources/reader/Test.xlsx
+++ b/src/test/resources/reader/Test.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h_yamazaki/git/actier/forma4j/src/test/resources/reader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34AD038-325A-8140-9091-15A75634D351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CC1CF1-2755-E946-AD62-CEC7BBCD217E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{C04F86F4-1662-7442-AC12-762150821E93}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" activeTab="6" xr2:uid="{C04F86F4-1662-7442-AC12-762150821E93}"/>
   </bookViews>
   <sheets>
     <sheet name="ひらがな" sheetId="1" r:id="rId1"/>
     <sheet name="カタカナ" sheetId="2" r:id="rId2"/>
     <sheet name="半角カタカナ" sheetId="3" r:id="rId3"/>
+    <sheet name="数値" sheetId="5" r:id="rId4"/>
+    <sheet name="日付" sheetId="6" r:id="rId5"/>
+    <sheet name="真理値" sheetId="7" r:id="rId6"/>
+    <sheet name="計算式" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,8 +41,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="146">
   <si>
     <t>あああああ</t>
     <phoneticPr fontId="1"/>
@@ -501,6 +527,46 @@
   </si>
   <si>
     <t>ﾝﾝﾝﾝﾝ</t>
+  </si>
+  <si>
+    <t>文字列</t>
+    <rPh sb="0" eb="3">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値</t>
+    <rPh sb="0" eb="2">
+      <t>スウティ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真理値</t>
+    <rPh sb="0" eb="3">
+      <t>シンリティ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブランク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Exception</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -558,26 +624,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -896,183 +959,181 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADBA580-7EBD-B345-A90D-0E27FAAFE48A}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" style="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="E10" s="1" t="s">
+      <c r="B10" s="3"/>
+      <c r="E10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1090,199 +1151,197 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" style="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="F5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1300,200 +1359,1005 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" style="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>134</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68279677-2D8F-1D48-8CC3-C1FEBE1D72B4}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>34</v>
+      </c>
+      <c r="E7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <v>39</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>41</v>
+      </c>
+      <c r="B9">
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <v>43</v>
+      </c>
+      <c r="D9">
+        <v>44</v>
+      </c>
+      <c r="E9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>47</v>
+      </c>
+      <c r="C10">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>49</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>52</v>
+      </c>
+      <c r="C11">
+        <v>53</v>
+      </c>
+      <c r="D11">
+        <v>54</v>
+      </c>
+      <c r="E11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>56</v>
+      </c>
+      <c r="B12">
+        <v>57</v>
+      </c>
+      <c r="C12">
+        <v>58</v>
+      </c>
+      <c r="D12">
+        <v>59</v>
+      </c>
+      <c r="E12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>61</v>
+      </c>
+      <c r="B13">
+        <v>62</v>
+      </c>
+      <c r="C13">
+        <v>63</v>
+      </c>
+      <c r="D13">
+        <v>64</v>
+      </c>
+      <c r="E13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>66</v>
+      </c>
+      <c r="B14">
+        <v>67</v>
+      </c>
+      <c r="C14">
+        <v>68</v>
+      </c>
+      <c r="D14">
+        <v>69</v>
+      </c>
+      <c r="E14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>71</v>
+      </c>
+      <c r="B15">
+        <v>72</v>
+      </c>
+      <c r="C15">
+        <v>73</v>
+      </c>
+      <c r="D15">
+        <v>74</v>
+      </c>
+      <c r="E15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>76</v>
+      </c>
+      <c r="B16">
+        <v>77</v>
+      </c>
+      <c r="C16">
+        <v>78</v>
+      </c>
+      <c r="D16">
+        <v>79</v>
+      </c>
+      <c r="E16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>81</v>
+      </c>
+      <c r="B17">
+        <v>82</v>
+      </c>
+      <c r="C17">
+        <v>83</v>
+      </c>
+      <c r="D17">
+        <v>84</v>
+      </c>
+      <c r="E17">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>86</v>
+      </c>
+      <c r="B18">
+        <v>87</v>
+      </c>
+      <c r="C18">
+        <v>88</v>
+      </c>
+      <c r="D18">
+        <v>89</v>
+      </c>
+      <c r="E18">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>91</v>
+      </c>
+      <c r="B19">
+        <v>92</v>
+      </c>
+      <c r="C19">
+        <v>93</v>
+      </c>
+      <c r="D19">
+        <v>94</v>
+      </c>
+      <c r="E19">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>96</v>
+      </c>
+      <c r="B20">
+        <v>97</v>
+      </c>
+      <c r="C20">
+        <v>98</v>
+      </c>
+      <c r="D20">
+        <v>99</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDA3CC4-C778-FD45-8B2F-3F018C3A9318}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="5">
+        <v>45444</v>
+      </c>
+      <c r="B1" s="5">
+        <v>45445</v>
+      </c>
+      <c r="C1" s="5">
+        <v>45446</v>
+      </c>
+      <c r="D1" s="5">
+        <v>45447</v>
+      </c>
+      <c r="E1" s="5">
+        <v>45448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5">
+        <v>45449</v>
+      </c>
+      <c r="B2" s="5">
+        <v>45450</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45451</v>
+      </c>
+      <c r="D2" s="5">
+        <v>45452</v>
+      </c>
+      <c r="E2" s="5">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5">
+        <v>45454</v>
+      </c>
+      <c r="B3" s="5">
+        <v>45455</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45456</v>
+      </c>
+      <c r="D3" s="5">
+        <v>45457</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5">
+        <v>45459</v>
+      </c>
+      <c r="B4" s="5">
+        <v>45460</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45461</v>
+      </c>
+      <c r="D4" s="5">
+        <v>45462</v>
+      </c>
+      <c r="E4" s="5">
+        <v>45463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5">
+        <v>45464</v>
+      </c>
+      <c r="B5" s="5">
+        <v>45465</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45466</v>
+      </c>
+      <c r="D5" s="5">
+        <v>45467</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5">
+        <v>45469</v>
+      </c>
+      <c r="B6" s="5">
+        <v>45470</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45471</v>
+      </c>
+      <c r="D6" s="5">
+        <v>45472</v>
+      </c>
+      <c r="E6" s="5">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5">
+        <v>45474</v>
+      </c>
+      <c r="B7" s="5">
+        <v>45475</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45476</v>
+      </c>
+      <c r="D7" s="5">
+        <v>45477</v>
+      </c>
+      <c r="E7" s="5">
+        <v>45478</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5">
+        <v>45479</v>
+      </c>
+      <c r="B8" s="5">
+        <v>45480</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45481</v>
+      </c>
+      <c r="D8" s="5">
+        <v>45482</v>
+      </c>
+      <c r="E8" s="5">
+        <v>45483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5">
+        <v>45484</v>
+      </c>
+      <c r="B9" s="5">
+        <v>45485</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45486</v>
+      </c>
+      <c r="D9" s="5">
+        <v>45487</v>
+      </c>
+      <c r="E9" s="5">
+        <v>45488</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5">
+        <v>45489</v>
+      </c>
+      <c r="B10" s="5">
+        <v>45490</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45491</v>
+      </c>
+      <c r="D10" s="5">
+        <v>45492</v>
+      </c>
+      <c r="E10" s="5">
+        <v>45493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5">
+        <v>45494</v>
+      </c>
+      <c r="B11" s="5">
+        <v>45495</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45496</v>
+      </c>
+      <c r="D11" s="5">
+        <v>45497</v>
+      </c>
+      <c r="E11" s="5">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5">
+        <v>45499</v>
+      </c>
+      <c r="B12" s="5">
+        <v>45500</v>
+      </c>
+      <c r="C12" s="5">
+        <v>45501</v>
+      </c>
+      <c r="D12" s="5">
+        <v>45502</v>
+      </c>
+      <c r="E12" s="5">
+        <v>45503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5">
+        <v>45504</v>
+      </c>
+      <c r="B13" s="5">
+        <v>45505</v>
+      </c>
+      <c r="C13" s="5">
+        <v>45506</v>
+      </c>
+      <c r="D13" s="5">
+        <v>45507</v>
+      </c>
+      <c r="E13" s="5">
+        <v>45508</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5">
+        <v>45509</v>
+      </c>
+      <c r="B14" s="5">
+        <v>45510</v>
+      </c>
+      <c r="C14" s="5">
+        <v>45511</v>
+      </c>
+      <c r="D14" s="5">
+        <v>45512</v>
+      </c>
+      <c r="E14" s="5">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5">
+        <v>45514</v>
+      </c>
+      <c r="B15" s="5">
+        <v>45515</v>
+      </c>
+      <c r="C15" s="5">
+        <v>45516</v>
+      </c>
+      <c r="D15" s="5">
+        <v>45517</v>
+      </c>
+      <c r="E15" s="5">
+        <v>45518</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5">
+        <v>45519</v>
+      </c>
+      <c r="B16" s="5">
+        <v>45520</v>
+      </c>
+      <c r="C16" s="5">
+        <v>45521</v>
+      </c>
+      <c r="D16" s="5">
+        <v>45522</v>
+      </c>
+      <c r="E16" s="5">
+        <v>45523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5">
+        <v>45524</v>
+      </c>
+      <c r="B17" s="5">
+        <v>45525</v>
+      </c>
+      <c r="C17" s="5">
+        <v>45526</v>
+      </c>
+      <c r="D17" s="5">
+        <v>45527</v>
+      </c>
+      <c r="E17" s="5">
+        <v>45528</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5">
+        <v>45529</v>
+      </c>
+      <c r="B18" s="5">
+        <v>45530</v>
+      </c>
+      <c r="C18" s="5">
+        <v>45531</v>
+      </c>
+      <c r="D18" s="5">
+        <v>45532</v>
+      </c>
+      <c r="E18" s="5">
+        <v>45533</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5">
+        <v>45534</v>
+      </c>
+      <c r="B19" s="5">
+        <v>45535</v>
+      </c>
+      <c r="C19" s="5">
+        <v>45536</v>
+      </c>
+      <c r="D19" s="5">
+        <v>45537</v>
+      </c>
+      <c r="E19" s="5">
+        <v>45538</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5">
+        <v>45539</v>
+      </c>
+      <c r="B20" s="5">
+        <v>45540</v>
+      </c>
+      <c r="C20" s="5">
+        <v>45541</v>
+      </c>
+      <c r="D20" s="5">
+        <v>45542</v>
+      </c>
+      <c r="E20" s="5">
+        <v>45543</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BBA03C-381D-C543-BC1E-D7210E3B1666}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC09BBE-4504-C146-BA55-1BC5D9BE9765}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" t="str">
+        <f>ひらがな!A1</f>
+        <v>あああああ</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2">
+        <f>10*5</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="5">
+        <f>日付!A1+50</f>
+        <v>45494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" t="b">
+        <f>真理値!A1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" t="e">
+        <f>1/0</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" t="e" cm="1">
+        <f t="array" ref="B6">a</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/reader/Test.xlsx
+++ b/src/test/resources/reader/Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h_yamazaki/git/actier/forma4j/src/test/resources/reader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CC1CF1-2755-E946-AD62-CEC7BBCD217E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4823DA-7E8F-A844-A774-3BF19A53441F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" activeTab="6" xr2:uid="{C04F86F4-1662-7442-AC12-762150821E93}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{C04F86F4-1662-7442-AC12-762150821E93}"/>
   </bookViews>
   <sheets>
     <sheet name="ひらがな" sheetId="1" r:id="rId1"/>
@@ -959,7 +959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADBA580-7EBD-B345-A90D-0E27FAAFE48A}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -1561,7 +1561,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68279677-2D8F-1D48-8CC3-C1FEBE1D72B4}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1905,6 +1905,40 @@
       </c>
       <c r="E20">
         <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B21">
+        <v>1.2</v>
+      </c>
+      <c r="C21">
+        <v>1.3</v>
+      </c>
+      <c r="D21">
+        <v>1.4</v>
+      </c>
+      <c r="E21">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>15000000</v>
+      </c>
+      <c r="B22">
+        <v>16000000</v>
+      </c>
+      <c r="C22">
+        <v>17000000</v>
+      </c>
+      <c r="D22">
+        <v>18000000</v>
+      </c>
+      <c r="E22">
+        <v>19000000</v>
       </c>
     </row>
   </sheetData>
@@ -2295,7 +2329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC09BBE-4504-C146-BA55-1BC5D9BE9765}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/reader/Test.xlsx
+++ b/src/test/resources/reader/Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h_yamazaki/git/actier/forma4j/src/test/resources/reader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4823DA-7E8F-A844-A774-3BF19A53441F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3799C704-C44B-6048-848A-7E351A334108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{C04F86F4-1662-7442-AC12-762150821E93}"/>
   </bookViews>

--- a/src/test/resources/reader/Test.xlsx
+++ b/src/test/resources/reader/Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h_yamazaki/git/actier/forma4j/src/test/resources/reader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3799C704-C44B-6048-848A-7E351A334108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C514D96-2DD5-4648-89F6-8BD5612B4A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{C04F86F4-1662-7442-AC12-762150821E93}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="日付" sheetId="6" r:id="rId5"/>
     <sheet name="真理値" sheetId="7" r:id="rId6"/>
     <sheet name="計算式" sheetId="4" r:id="rId7"/>
+    <sheet name="表示形式" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="151">
   <si>
     <t>あああああ</t>
     <phoneticPr fontId="1"/>
@@ -566,6 +567,65 @@
   </si>
   <si>
     <t>Exception</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小数点以下桁数指定</t>
+    <rPh sb="0" eb="2">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テn</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケタスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小数点以下桁数未指定</t>
+    <rPh sb="0" eb="2">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テn</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケタスウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ミシテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算式</t>
+    <rPh sb="0" eb="3">
+      <t>ケイサn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値（カンマ区切り）</t>
+    <rPh sb="0" eb="2">
+      <t>スウティ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通過</t>
+    <rPh sb="0" eb="2">
+      <t>ツウカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -573,9 +633,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="5">
+    <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="179" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -624,7 +687,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -641,6 +704,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1561,11 +1633,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68279677-2D8F-1D48-8CC3-C1FEBE1D72B4}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
@@ -1940,6 +2015,13 @@
       <c r="E22">
         <v>19000000</v>
       </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2329,9 +2411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC09BBE-4504-C146-BA55-1BC5D9BE9765}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
@@ -2398,4 +2478,66 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DF63D6-FFB0-E947-B720-28C90B956741}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="6">
+        <v>1.051234</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2">
+        <v>1.1234567890123399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3">
+        <f>B2</f>
+        <v>1.1234567890123399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1234</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>